--- a/صيدليات دكتور مصطفي طلعت_2026-01-17_22-22.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-17_22-22.xlsx
@@ -107,210 +107,213 @@
     <t>CEFZIM 1 GM VIAL</t>
   </si>
   <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>CERVITAM 20 CAPS.</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>26:0</t>
+  </si>
+  <si>
+    <t>CLOSOL 10MG/ML TOPICAL SPRAY 40 ML</t>
+  </si>
+  <si>
+    <t>CONCOR 5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
+  </si>
+  <si>
+    <t>17:1</t>
+  </si>
+  <si>
+    <t>CYMBATEX 20 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>10:2</t>
+  </si>
+  <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>DEPOFORT B12 1MG/ML 5 AMP.</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>DERTRINA TAB</t>
+  </si>
+  <si>
+    <t>DESMODJUST 0.2MG TAB</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>11:1</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>DOLPHIN 25 MG 10 SUPP.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>DOSTINEX 0.5 MG 2 TABS.</t>
+  </si>
+  <si>
+    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>EMEREST 8MG 4ML/3AMP</t>
+  </si>
+  <si>
+    <t>EPICEPHIN 1 GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>EPICEPHIN 500MG I.M. VIAL</t>
+  </si>
+  <si>
+    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
+  </si>
+  <si>
+    <t>ERASTAPEX TRIO 10/40/25MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>EXEEDOGAST 40 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6:6</t>
+  </si>
+  <si>
+    <t>FERRODUONAL 30 CAP</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>GASTROBIOTIC550MG 20 TAB</t>
+  </si>
+  <si>
+    <t>GENICA RAY SUN SCREEN SPF 50+ CREAM 100 GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GYPSUM  SYRUP</t>
+  </si>
+  <si>
+    <t>HAIRVOGINE 30TAB</t>
+  </si>
+  <si>
+    <t>HEALSEC 20MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>HELIXBROM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>HERO VITAMIN DROPS</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 625MG 16 TAB.</t>
+  </si>
+  <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>INOFOLIC CAPS</t>
+  </si>
+  <si>
+    <t>IVYROSPAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>LUTOFOLONE 2 AMP.</t>
+  </si>
+  <si>
+    <t>MECLIZIGO 25 MG 20 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
+    <t>MIRFENACIN 5/50 TAB</t>
+  </si>
+  <si>
+    <t>MORNIGAG 10/10MG 30 DELAYED REL. F.C. TABS.</t>
+  </si>
+  <si>
+    <t>NAN PRE MILK 400 GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NARJI  LOTION</t>
+  </si>
+  <si>
+    <t>OPLEX N PLUS 10 SUPP.</t>
+  </si>
+  <si>
     <t>7:0</t>
   </si>
   <si>
-    <t>CERVITAM 20 CAPS.</t>
-  </si>
-  <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>26:0</t>
-  </si>
-  <si>
-    <t>CLOSOL 10MG/ML TOPICAL SPRAY 40 ML</t>
-  </si>
-  <si>
-    <t>CONCOR 5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
-  </si>
-  <si>
-    <t>17:1</t>
-  </si>
-  <si>
-    <t>CYMBATEX 20 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>10:2</t>
-  </si>
-  <si>
-    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
-  </si>
-  <si>
-    <t>DEPOFORT B12 1MG/ML 5 AMP.</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>DERTRINA TAB</t>
-  </si>
-  <si>
-    <t>DESMODJUST 0.2MG TAB</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>11:1</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>DIGENORM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>DOLPHIN 25 MG 10 SUPP.</t>
-  </si>
-  <si>
-    <t>DOSTINEX 0.5 MG 2 TABS.</t>
-  </si>
-  <si>
-    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>EMEREST 8MG 4ML/3AMP</t>
-  </si>
-  <si>
-    <t>EPICEPHIN 1 GM I.M. VIAL</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>EPICEPHIN 500MG I.M. VIAL</t>
-  </si>
-  <si>
-    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
-  </si>
-  <si>
-    <t>ERASTAPEX TRIO 10/40/25MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>EXEEDOGAST 40 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>6:6</t>
-  </si>
-  <si>
-    <t>FERRODUONAL 30 CAP</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>GASTROBIOTIC550MG 20 TAB</t>
-  </si>
-  <si>
-    <t>GENICA RAY SUN SCREEN SPF 50+ CREAM 100 GM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GYPSUM  SYRUP</t>
-  </si>
-  <si>
-    <t>HAIRVOGINE 30TAB</t>
-  </si>
-  <si>
-    <t>HEALSEC 20MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>HELIXBROM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>HERO VITAMIN DROPS</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 625MG 16 TAB.</t>
-  </si>
-  <si>
-    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
-  </si>
-  <si>
-    <t>INDERAL 10 MG 50 TABS</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>INOFOLIC CAPS</t>
-  </si>
-  <si>
-    <t>IVYROSPAN SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>LUTOFOLONE 2 AMP.</t>
-  </si>
-  <si>
-    <t>MECLIZIGO 25 MG 20 ORODISPERSIBLE FILMS</t>
-  </si>
-  <si>
-    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
-  </si>
-  <si>
-    <t>MIRFENACIN 5/50 TAB</t>
-  </si>
-  <si>
-    <t>MORNIGAG 10/10MG 30 DELAYED REL. F.C. TABS.</t>
-  </si>
-  <si>
-    <t>NAN PRE MILK 400 GM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NARJI  LOTION</t>
-  </si>
-  <si>
-    <t>OPLEX N PLUS 10 SUPP.</t>
-  </si>
-  <si>
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
@@ -446,13 +449,10 @@
     <t>سرنجات 10 سم</t>
   </si>
   <si>
-    <t>-2:0</t>
+    <t>-1:0</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>-1:0</t>
   </si>
   <si>
     <t>106:0</t>
@@ -1460,17 +1460,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1850,13 +1850,13 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
@@ -1868,7 +1868,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1876,7 +1876,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
@@ -1894,7 +1894,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1902,7 +1902,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
@@ -1920,7 +1920,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1928,7 +1928,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
@@ -2032,7 +2032,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
@@ -2042,7 +2042,7 @@
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>66</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -2050,7 +2050,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -2076,7 +2076,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -2102,7 +2102,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -2110,7 +2110,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
@@ -2128,7 +2128,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -2154,7 +2154,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -2180,7 +2180,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2188,7 +2188,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
@@ -2206,7 +2206,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2232,7 +2232,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2240,7 +2240,7 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
@@ -2258,7 +2258,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2284,7 +2284,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2310,7 +2310,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2336,7 +2336,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2362,7 +2362,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2388,7 +2388,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2414,7 +2414,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2440,7 +2440,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2466,7 +2466,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2492,7 +2492,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2510,7 +2510,7 @@
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2518,7 +2518,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2544,7 +2544,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2570,7 +2570,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2578,17 +2578,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2596,7 +2596,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2604,17 +2604,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2622,7 +2622,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2630,13 +2630,13 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
@@ -2648,7 +2648,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2656,13 +2656,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>128.25</v>
+        <v>90</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
@@ -2674,7 +2674,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2682,17 +2682,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>137</v>
+        <v>128.25</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2700,7 +2700,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2708,17 +2708,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2726,7 +2726,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2734,13 +2734,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>390</v>
+        <v>66</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
@@ -2752,7 +2752,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2760,13 +2760,13 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>290</v>
+        <v>390</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
@@ -2778,7 +2778,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2786,17 +2786,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>16</v>
+        <v>290</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2804,7 +2804,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2812,17 +2812,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2830,7 +2830,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2838,13 +2838,13 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
@@ -2864,17 +2864,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2890,17 +2890,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>45.079999999999998</v>
+        <v>31</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>106</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2908,7 +2908,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2916,17 +2916,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>29</v>
+        <v>45.079999999999998</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>17</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2934,7 +2934,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2942,17 +2942,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2968,13 +2968,13 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
@@ -2994,13 +2994,13 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
@@ -3026,11 +3026,11 @@
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>7.0499999999999998</v>
+        <v>37</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -3046,17 +3046,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>65</v>
+        <v>7.0499999999999998</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -3072,17 +3072,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>115</v>
+        <v>9</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3090,7 +3090,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -3098,17 +3098,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3124,17 +3124,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3150,17 +3150,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>-47</v>
+        <v>61</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3176,13 +3176,13 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>21</v>
+        <v>-47</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
@@ -3202,17 +3202,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3228,17 +3228,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3254,17 +3254,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3280,17 +3280,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3306,17 +3306,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>258</v>
+        <v>28</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
-        <v>66</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3332,17 +3332,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>23</v>
+        <v>258</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3358,17 +3358,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
-        <v>58</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3384,17 +3384,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>11</v>
+        <v>57</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3410,17 +3410,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3442,11 +3442,11 @@
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3462,17 +3462,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>131</v>
+        <v>9</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
-        <v>50</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3480,7 +3480,7 @@
         <v>93</v>
       </c>
       <c t="s" r="B96" s="7">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3488,17 +3488,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3514,17 +3514,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>7.5</v>
+        <v>66</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
-        <v>66</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3532,7 +3532,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B98" s="7">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3540,17 +3540,17 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>48</v>
+        <v>7.5</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3572,11 +3572,11 @@
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" ht="25.5" customHeight="1">
@@ -3598,7 +3598,7 @@
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
@@ -3618,17 +3618,17 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>30</v>
+        <v>190</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -3636,7 +3636,7 @@
         <v>99</v>
       </c>
       <c t="s" r="B102" s="7">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -3644,13 +3644,13 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
@@ -3662,7 +3662,7 @@
         <v>100</v>
       </c>
       <c t="s" r="B103" s="7">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -3670,13 +3670,13 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>285</v>
+        <v>45</v>
       </c>
       <c r="M103" s="9"/>
       <c t="s" r="N103" s="7">
@@ -3696,13 +3696,13 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>20</v>
+        <v>285</v>
       </c>
       <c r="M104" s="9"/>
       <c t="s" r="N104" s="7">
@@ -3722,17 +3722,17 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M105" s="9"/>
       <c t="s" r="N105" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106" ht="24.75" customHeight="1">
@@ -3740,7 +3740,7 @@
         <v>103</v>
       </c>
       <c t="s" r="B106" s="7">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -3748,17 +3748,17 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="M106" s="9"/>
       <c t="s" r="N106" s="7">
-        <v>148</v>
+        <v>32</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -3766,7 +3766,7 @@
         <v>104</v>
       </c>
       <c t="s" r="B107" s="7">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -3774,17 +3774,17 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>32</v>
+        <v>212</v>
       </c>
       <c r="M107" s="9"/>
       <c t="s" r="N107" s="7">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="108" ht="25.5" customHeight="1">
@@ -3792,7 +3792,7 @@
         <v>105</v>
       </c>
       <c t="s" r="B108" s="7">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -3800,17 +3800,17 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M108" s="9"/>
       <c t="s" r="N108" s="7">
-        <v>16</v>
+        <v>151</v>
       </c>
     </row>
     <row r="109" ht="24.75" customHeight="1">
@@ -3818,7 +3818,7 @@
         <v>106</v>
       </c>
       <c t="s" r="B109" s="7">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -3826,7 +3826,7 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>66</v>
+        <v>151</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
@@ -3836,7 +3836,7 @@
       </c>
       <c r="M109" s="9"/>
       <c t="s" r="N109" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="25.5" customHeight="1">
@@ -3844,7 +3844,7 @@
         <v>107</v>
       </c>
       <c t="s" r="B110" s="7">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -3852,13 +3852,13 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M110" s="9"/>
       <c t="s" r="N110" s="7">
@@ -3870,7 +3870,7 @@
         <v>108</v>
       </c>
       <c t="s" r="B111" s="7">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -3878,17 +3878,17 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M111" s="9"/>
       <c t="s" r="N111" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -3896,7 +3896,7 @@
         <v>109</v>
       </c>
       <c t="s" r="B112" s="7">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -3904,17 +3904,17 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M112" s="9"/>
       <c t="s" r="N112" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="25.5" customHeight="1">
@@ -3922,7 +3922,7 @@
         <v>110</v>
       </c>
       <c t="s" r="B113" s="7">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -3936,7 +3936,7 @@
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M113" s="9"/>
       <c t="s" r="N113" s="7">
@@ -3948,7 +3948,7 @@
         <v>111</v>
       </c>
       <c t="s" r="B114" s="7">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -3962,7 +3962,7 @@
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="M114" s="9"/>
       <c t="s" r="N114" s="7">
@@ -3974,7 +3974,7 @@
         <v>112</v>
       </c>
       <c t="s" r="B115" s="7">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -3982,13 +3982,13 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M115" s="9"/>
       <c t="s" r="N115" s="7">
@@ -4000,7 +4000,7 @@
         <v>113</v>
       </c>
       <c t="s" r="B116" s="7">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -4008,17 +4008,17 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="M116" s="9"/>
       <c t="s" r="N116" s="7">
-        <v>66</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -4026,7 +4026,7 @@
         <v>114</v>
       </c>
       <c t="s" r="B117" s="7">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
@@ -4034,17 +4034,17 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c t="s" r="H117" s="8">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M117" s="9"/>
       <c t="s" r="N117" s="7">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="118" ht="25.5" customHeight="1">
@@ -4052,7 +4052,7 @@
         <v>115</v>
       </c>
       <c t="s" r="B118" s="7">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -4060,51 +4060,77 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c t="s" r="H118" s="8">
-        <v>164</v>
+        <v>9</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="9">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="M118" s="9"/>
       <c t="s" r="N118" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="119" ht="25.5" customHeight="1">
-      <c r="K119" s="10">
-        <v>8936.4699999999993</v>
-      </c>
-      <c r="L119" s="10"/>
-      <c r="M119" s="10"/>
-      <c r="N119" s="10"/>
-    </row>
-    <row r="120" ht="16.5" customHeight="1">
-      <c t="s" r="A120" s="11">
+    <row r="119" ht="24.75" customHeight="1">
+      <c r="A119" s="6">
+        <v>116</v>
+      </c>
+      <c t="s" r="B119" s="7">
+        <v>163</v>
+      </c>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+      <c t="s" r="H119" s="8">
+        <v>164</v>
+      </c>
+      <c r="I119" s="8"/>
+      <c r="J119" s="8"/>
+      <c r="K119" s="8"/>
+      <c r="L119" s="9">
+        <v>45</v>
+      </c>
+      <c r="M119" s="9"/>
+      <c t="s" r="N119" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" ht="26.25" customHeight="1">
+      <c r="K120" s="10">
+        <v>9031.4699999999993</v>
+      </c>
+      <c r="L120" s="10"/>
+      <c r="M120" s="10"/>
+      <c r="N120" s="10"/>
+    </row>
+    <row r="121" ht="16.5" customHeight="1">
+      <c t="s" r="A121" s="11">
         <v>165</v>
       </c>
-      <c r="B120" s="11"/>
-      <c r="C120" s="11"/>
-      <c r="D120" s="11"/>
-      <c r="E120" s="11"/>
-      <c t="s" r="F120" s="12">
+      <c r="B121" s="11"/>
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c t="s" r="F121" s="12">
         <v>166</v>
       </c>
-      <c r="G120" s="12"/>
-      <c r="H120" s="13"/>
-      <c t="s" r="I120" s="14">
+      <c r="G121" s="12"/>
+      <c r="H121" s="13"/>
+      <c t="s" r="I121" s="14">
         <v>167</v>
       </c>
-      <c r="J120" s="14"/>
-      <c r="K120" s="14"/>
-      <c r="L120" s="14"/>
-      <c r="M120" s="14"/>
-      <c r="N120" s="14"/>
+      <c r="J121" s="14"/>
+      <c r="K121" s="14"/>
+      <c r="L121" s="14"/>
+      <c r="M121" s="14"/>
+      <c r="N121" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="356">
+  <mergeCells count="359">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4457,10 +4483,13 @@
     <mergeCell ref="B118:G118"/>
     <mergeCell ref="H118:K118"/>
     <mergeCell ref="L118:M118"/>
-    <mergeCell ref="K119:N119"/>
-    <mergeCell ref="A120:E120"/>
-    <mergeCell ref="F120:G120"/>
-    <mergeCell ref="I120:N120"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="K120:N120"/>
+    <mergeCell ref="A121:E121"/>
+    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="I121:N121"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
